--- a/results/average_vkt_per_fuel_type.xlsx
+++ b/results/average_vkt_per_fuel_type.xlsx
@@ -8,29 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/Projects/Fleeting_modeling_SAO/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A9AA2A-BDDF-FD40-A3C6-2FAD51659659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5600BDD9-70F4-DF4B-8371-6A49D214E712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$120</definedName>
-  </definedNames>
-  <calcPr calcId="191029" iterateDelta="1.0000000000000001E-5" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1.0000000000000001E-5" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -144,55 +129,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48A64DA-5752-7D71-F595-D8387A869CA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10096500" y="5334000"/>
-          <a:ext cx="5689600" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,12 +416,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U144" sqref="U144"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -503,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -517,7 +450,7 @@
         <v>17.263999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -531,7 +464,7 @@
         <v>18.116</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -545,7 +478,7 @@
         <v>10.451000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -559,7 +492,7 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -573,7 +506,7 @@
         <v>19.603999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -587,7 +520,7 @@
         <v>41.692</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -601,7 +534,7 @@
         <v>16.986000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -615,7 +548,7 @@
         <v>28.11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -629,7 +562,7 @@
         <v>45.389000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -643,7 +576,7 @@
         <v>25.396999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -657,7 +590,7 @@
         <v>24.285</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -671,7 +604,7 @@
         <v>32.076000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -685,7 +618,7 @@
         <v>19.218</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -699,7 +632,7 @@
         <v>20.850999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -713,7 +646,7 @@
         <v>19.908000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -727,7 +660,7 @@
         <v>32.186999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -741,7 +674,7 @@
         <v>24.495000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -755,7 +688,7 @@
         <v>19.91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -769,7 +702,7 @@
         <v>22.710999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -783,7 +716,7 @@
         <v>32.430999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -797,7 +730,7 @@
         <v>27.329000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -811,7 +744,7 @@
         <v>15.353999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -825,7 +758,7 @@
         <v>76.421999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -839,7 +772,7 @@
         <v>17.463999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -853,7 +786,7 @@
         <v>10.598000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -867,7 +800,7 @@
         <v>2.9660000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -881,7 +814,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -895,7 +828,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -909,7 +842,7 @@
         <v>8.4469999999999992</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -923,7 +856,7 @@
         <v>8.3260000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -937,7 +870,7 @@
         <v>9.7509999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -951,7 +884,7 @@
         <v>8.7520000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -965,7 +898,7 @@
         <v>6.2370000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -979,7 +912,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -993,7 +926,7 @@
         <v>3.4580000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +940,7 @@
         <v>7.5860000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +954,7 @@
         <v>10.012</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +968,7 @@
         <v>8.3510000000000009</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +982,7 @@
         <v>13.691000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +996,7 @@
         <v>9.1940000000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1010,7 @@
         <v>18.207999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1024,7 @@
         <v>11.909000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1038,7 @@
         <v>33.15</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1052,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1066,7 @@
         <v>25.094999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1080,7 @@
         <v>24.925000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1094,7 @@
         <v>38.124000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1108,7 @@
         <v>22.503</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1122,7 @@
         <v>19.061</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1136,7 @@
         <v>20.898</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1150,7 @@
         <v>22.081</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +1164,7 @@
         <v>19.683</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1178,7 @@
         <v>16.355</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1259,7 +1192,7 @@
         <v>37.762999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1206,7 @@
         <v>28.867999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1220,7 @@
         <v>7.5309999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1234,7 @@
         <v>23.45</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1248,7 @@
         <v>19.794</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1262,7 @@
         <v>3.5449999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1343,7 +1276,7 @@
         <v>2.0990000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1290,7 @@
         <v>2.798</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1304,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +1318,7 @@
         <v>9.8510000000000009</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1332,7 @@
         <v>43.853000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1346,7 @@
         <v>31.466000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1360,7 @@
         <v>25.908999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1374,7 @@
         <v>21.670999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1388,7 @@
         <v>32.554000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1469,7 +1402,7 @@
         <v>140.16999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1416,7 @@
         <v>22.172000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1430,7 @@
         <v>25.498000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1444,7 @@
         <v>19.515000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1458,7 @@
         <v>26.541</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1472,7 @@
         <v>27.123999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -1553,7 +1486,7 @@
         <v>30.245000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1567,7 +1500,7 @@
         <v>45.71</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1514,7 @@
         <v>32.694000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +1528,7 @@
         <v>33.302999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -1609,7 +1542,7 @@
         <v>32.174999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1556,7 @@
         <v>50.953000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1570,7 @@
         <v>21.146999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1584,7 @@
         <v>9.109</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -1665,7 +1598,7 @@
         <v>145.29499999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1679,7 +1612,7 @@
         <v>36.286000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1808,7 @@
         <v>103.505</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +1822,7 @@
         <v>12.102</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -1903,7 +1836,7 @@
         <v>22.792999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -1917,7 +1850,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -1931,7 +1864,7 @@
         <v>24.138999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -1945,7 +1878,7 @@
         <v>20.838999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -1959,7 +1892,7 @@
         <v>8.9809999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -1973,7 +1906,7 @@
         <v>15.954000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +1920,7 @@
         <v>18.346</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +1934,7 @@
         <v>18.984999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +1948,7 @@
         <v>13.064</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +1962,7 @@
         <v>21.574999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +1976,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +1990,7 @@
         <v>16.507999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -2071,7 +2004,7 @@
         <v>16.821999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2018,7 @@
         <v>10.074999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -2099,7 +2032,7 @@
         <v>30.056000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2046,7 @@
         <v>19.305</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2060,7 @@
         <v>16.053000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -2141,38 +2074,7 @@
         <v>1.768</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D119">
-        <f>AVERAGE(D100:D118)</f>
-        <v>17.338684210526313</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D120">
-        <f>AVERAGE(D60:D83)</f>
-        <v>28.880083333333332</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D121">
-        <f>AVERAGE(D87:D99)</f>
-        <v>64.584000000000003</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D120" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Security Patrol"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Gasoline"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>